--- a/pedidos/pedidos.xlsx
+++ b/pedidos/pedidos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,21 @@
           <t>Status</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Observacoes</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Ultima_Atualizacao</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Responsavel_Atualizacao</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -507,6 +522,169 @@
           <t>Pendente</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>REQ-1000</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>29/05/2025 14:23</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ford</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>R11-LA-C10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>te</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>REQ-1001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>29/05/2025 14:23</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>R10-LA-A1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>teee</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>REQ-1002</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>29/05/2025 14:26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ford</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>R10-LA-A1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>tee</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>REQ-1003</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>29/05/2025 14:30</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>R01-LA-A1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>wwwww</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -519,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,10 +753,8 @@
           <t>CB001</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2.5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -587,6 +763,126 @@
       </c>
       <c r="F2" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>REQ-1000</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>M2TCD-0.35F-V-O</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>180GB3069E3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.35F</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>V-O</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>REQ-1001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>A3ZPA-0.35-BE-W</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>180DN1069DH</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>BE-W</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>REQ-1002</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LMPT2A-0.35-BR-G</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>180BA406986</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>BR-G</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>REQ-1003</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ACOR2Z-0.75-B</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>180EX604030</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pedidos/pedidos.xlsx
+++ b/pedidos/pedidos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,260 +467,44 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Observacoes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>Status</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Ultima_Atualizacao</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Responsavel_Atualizacao</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>REQ-001</t>
+          <t>REQ-999</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>28/05/2025 11:14</t>
+          <t>29/05/2025 10:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ford</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A001</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>R01-LA-C5</t>
+          <t>P01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>washington vieira</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Testando requisição</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Concluído</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>28/05/2025 15:37</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>washington vieira</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>REQ-002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>28/05/2025 11:20</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Renault</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>22</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>R22-LA-A1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>washington vieira</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>TESTANTANDO</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Em Processamento</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>28/05/2025 15:45</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>washington</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>REQ-003</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>28/05/2025 12:03</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ford</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>R10-LA-C4</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>was</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Concluído</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>28/05/2025 15:38</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Washingto</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>REQ-004</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>28/05/2025 14:28</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Ford</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>R01-LA-D2</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>washington vieira</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Concluído</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>28/05/2025 15:37</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Washington</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>REQ-005</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>28/05/2025 16:08</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Ford</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>R01-LA-A3</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>washington vieira</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
           <t>Pendente</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>28/05/2025 16:45</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>washington</t>
         </is>
       </c>
     </row>
@@ -735,7 +519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -778,141 +562,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>REQ-001</t>
+          <t>REQ-999</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FLRYA-0.5-W</t>
+          <t>YZ001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>180C9703940</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5</v>
+          <t>CB001</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Preto</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>REQ-002</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>NEWA3Z-1.0-Y</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1800J406070</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>REQ-003</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>FLRYA-1.0-BR-Y</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>180C9706087</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>BR-Y</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>REQ-004</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>FLRYA-0.5-L-G</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>180C9703996</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>L-G</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>REQ-005</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>FLRYA-0.5-Y-G</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>180C9703976</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Y-G</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/pedidos/pedidos.xlsx
+++ b/pedidos/pedidos.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,6 +685,166 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>REQ-1004</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>29/05/2025 15:44</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>R17-LA-A1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>REQ-1005</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>29/05/2025 15:49</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>R10-LA-A2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TESTE</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>REQ-1006</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>29/05/2025 15:53</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>R01-LA-A1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>washington vieira</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>REQ-1007</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>29/05/2025 15:56</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Renault</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>R10-LA-A2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>washington vieira</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Pendente</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -697,7 +857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -885,6 +1045,126 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>REQ-1004</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>A3ZPA-8.0-R</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>180DN104550</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>REQ-1005</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>A3ZPA-0.35-BR-W</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>180DN106984</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>BR-W</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>REQ-1006</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ACOR2Z-0.75-B</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>180EX604030</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>REQ-1007</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A3ZPA-0.35-BR-W</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>180DN106984</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BR-W</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
